--- a/output/article/Supp-mat2a_area.xlsx
+++ b/output/article/Supp-mat2a_area.xlsx
@@ -26,10 +26,10 @@
     <t xml:space="preserve">p_area1_superior_to_area2</t>
   </si>
   <si>
-    <t xml:space="preserve">Northeast Atlantic</t>
+    <t xml:space="preserve">Central North Atlantic</t>
   </si>
   <si>
-    <t xml:space="preserve">Northwest Atlantic</t>
+    <t xml:space="preserve">Northeast Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northwest Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">California current</t>
@@ -84,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">French Polynesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central North Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">Gulf of Alaska</t>
@@ -446,7 +446,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9876</v>
+        <v>0.6954</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9838</v>
+        <v>0.5986</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9791</v>
+        <v>0.5802</v>
       </c>
     </row>
     <row r="5">
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9395</v>
+        <v>0.8975</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9705</v>
+        <v>0.4901</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9847</v>
+        <v>0.6941</v>
       </c>
     </row>
     <row r="8">
@@ -530,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9821</v>
+        <v>0.7346</v>
       </c>
     </row>
     <row r="9">
@@ -544,7 +544,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9561</v>
+        <v>0.7881</v>
       </c>
     </row>
     <row r="10">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9958</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9886</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="13">
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9975</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9577</v>
       </c>
     </row>
     <row r="15">
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9946</v>
       </c>
     </row>
     <row r="17">
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9922</v>
       </c>
     </row>
     <row r="18">
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9998</v>
       </c>
     </row>
     <row r="21">
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9991</v>
       </c>
     </row>
     <row r="23">
@@ -782,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -866,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -894,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9996</v>
       </c>
     </row>
     <row r="35">
@@ -908,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="36">
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="37">
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="38">
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9996</v>
       </c>
     </row>
     <row r="39">
@@ -964,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="40">
@@ -978,7 +978,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9995</v>
       </c>
     </row>
     <row r="41">
@@ -992,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9998</v>
       </c>
     </row>
     <row r="42">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1669,234 +1669,234 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
         <v>24</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
         <v>24</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
         <v>24</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
         <v>24</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
         <v>24</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
         <v>24</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
       </c>
       <c r="C95" t="s">
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
         <v>24</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
         <v>24</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9958</v>
+        <v>0.9876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9886</v>
+        <v>0.9838</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983</v>
+        <v>0.9791</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9975</v>
+        <v>0.9395</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9577</v>
+        <v>0.9705</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.993</v>
+        <v>0.9847</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9946</v>
+        <v>0.9821</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9922</v>
+        <v>0.9561</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -1921,24 +1921,24 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>9</v>
@@ -1949,24 +1949,24 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
@@ -1977,10 +1977,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2019,10 +2019,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -2033,10 +2033,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -2047,10 +2047,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>9</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
@@ -2075,10 +2075,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -2117,24 +2117,24 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9996</v>
+        <v>0.9995</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -2145,94 +2145,94 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9997</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C125" t="s">
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9994</v>
+        <v>0.9985</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9996</v>
+        <v>0.9993</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C127" t="s">
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9997</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9995</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9998</v>
+        <v>0.9995</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
@@ -2271,10 +2271,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
         <v>9</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -2383,24 +2383,24 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -2411,10 +2411,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -2439,10 +2439,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -2453,10 +2453,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
         <v>9</v>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -2579,10 +2579,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -2593,10 +2593,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -2607,10 +2607,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
         <v>9</v>
@@ -2621,10 +2621,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
@@ -2649,10 +2649,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -2677,10 +2677,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
         <v>9</v>
@@ -2733,10 +2733,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C166" t="s">
         <v>10</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
@@ -2761,10 +2761,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
@@ -2831,10 +2831,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s">
         <v>9</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C174" t="s">
         <v>10</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
@@ -2873,10 +2873,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
@@ -2887,10 +2887,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
@@ -2901,10 +2901,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
         <v>24</v>
-      </c>
-      <c r="B178" t="s">
-        <v>23</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
         <v>24</v>
-      </c>
-      <c r="B179" t="s">
-        <v>23</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
         <v>24</v>
-      </c>
-      <c r="B180" t="s">
-        <v>23</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
@@ -2943,10 +2943,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
         <v>24</v>
-      </c>
-      <c r="B181" t="s">
-        <v>23</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
         <v>24</v>
-      </c>
-      <c r="B182" t="s">
-        <v>23</v>
       </c>
       <c r="C182" t="s">
         <v>10</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
         <v>24</v>
-      </c>
-      <c r="B183" t="s">
-        <v>23</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
         <v>24</v>
-      </c>
-      <c r="B184" t="s">
-        <v>23</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
@@ -2999,10 +2999,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
         <v>24</v>
-      </c>
-      <c r="B185" t="s">
-        <v>23</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -3022,7 +3022,7 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3206</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="187">
@@ -3036,7 +3036,7 @@
         <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>0.2892</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="188">
@@ -3050,7 +3050,7 @@
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3206</v>
+        <v>0.2743</v>
       </c>
     </row>
     <row r="189">
@@ -3064,7 +3064,7 @@
         <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2471</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="190">
@@ -3078,7 +3078,7 @@
         <v>10</v>
       </c>
       <c r="D190" t="n">
-        <v>0.2219</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="191">
@@ -3092,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3459</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="192">
@@ -3106,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="D192" t="n">
-        <v>0.2903</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="193">
@@ -3120,7 +3120,7 @@
         <v>13</v>
       </c>
       <c r="D193" t="n">
-        <v>0.2594</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="194">
@@ -3128,13 +3128,13 @@
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2138</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="195">
@@ -3142,13 +3142,13 @@
         <v>25</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2348</v>
+        <v>0.2892</v>
       </c>
     </row>
     <row r="196">
@@ -3156,13 +3156,13 @@
         <v>25</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>0.2743</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="197">
@@ -3170,13 +3170,13 @@
         <v>25</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0614</v>
+        <v>0.2471</v>
       </c>
     </row>
     <row r="198">
@@ -3184,13 +3184,13 @@
         <v>25</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>10</v>
       </c>
       <c r="D198" t="n">
-        <v>0.216</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="199">
@@ -3198,13 +3198,13 @@
         <v>25</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.2305</v>
+        <v>0.3459</v>
       </c>
     </row>
     <row r="200">
@@ -3212,13 +3212,13 @@
         <v>25</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>0.171</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="201">
@@ -3226,13 +3226,13 @@
         <v>25</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
       </c>
       <c r="D201" t="n">
-        <v>0.1327</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="202">
@@ -3240,7 +3240,7 @@
         <v>25</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -3254,7 +3254,7 @@
         <v>25</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -3282,7 +3282,7 @@
         <v>25</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
@@ -3296,7 +3296,7 @@
         <v>25</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
         <v>10</v>
@@ -3310,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C207" t="s">
         <v>11</v>
@@ -3324,7 +3324,7 @@
         <v>25</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
@@ -3338,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
@@ -3352,7 +3352,7 @@
         <v>25</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -3366,7 +3366,7 @@
         <v>25</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -3380,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
@@ -3394,7 +3394,7 @@
         <v>25</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C213" t="s">
         <v>9</v>
@@ -3408,7 +3408,7 @@
         <v>25</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
         <v>10</v>
@@ -3422,7 +3422,7 @@
         <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
         <v>11</v>
@@ -3436,7 +3436,7 @@
         <v>25</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
@@ -3450,7 +3450,7 @@
         <v>25</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -3464,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -3478,7 +3478,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -3492,7 +3492,7 @@
         <v>25</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
         <v>8</v>
@@ -3506,7 +3506,7 @@
         <v>25</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -3520,7 +3520,7 @@
         <v>25</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
         <v>10</v>
@@ -3534,7 +3534,7 @@
         <v>25</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
         <v>11</v>
@@ -3548,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
@@ -3562,7 +3562,7 @@
         <v>25</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -3576,7 +3576,7 @@
         <v>25</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -3590,7 +3590,7 @@
         <v>25</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -3604,7 +3604,7 @@
         <v>25</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
@@ -3618,7 +3618,7 @@
         <v>25</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -3632,7 +3632,7 @@
         <v>25</v>
       </c>
       <c r="B230" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C230" t="s">
         <v>10</v>
@@ -3646,7 +3646,7 @@
         <v>25</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
@@ -3660,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -3674,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -3688,7 +3688,7 @@
         <v>25</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -3702,7 +3702,7 @@
         <v>25</v>
       </c>
       <c r="B235" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -3716,7 +3716,7 @@
         <v>25</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -3730,7 +3730,7 @@
         <v>25</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
@@ -3744,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="B238" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C238" t="s">
         <v>10</v>
@@ -3758,7 +3758,7 @@
         <v>25</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C239" t="s">
         <v>11</v>
@@ -3772,7 +3772,7 @@
         <v>25</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
@@ -3786,7 +3786,7 @@
         <v>25</v>
       </c>
       <c r="B241" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -3800,7 +3800,7 @@
         <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -3814,7 +3814,7 @@
         <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -3828,7 +3828,7 @@
         <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -3842,7 +3842,7 @@
         <v>25</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
@@ -3856,7 +3856,7 @@
         <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C246" t="s">
         <v>10</v>
@@ -3870,7 +3870,7 @@
         <v>25</v>
       </c>
       <c r="B247" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C247" t="s">
         <v>11</v>
@@ -3884,7 +3884,7 @@
         <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
@@ -3898,7 +3898,7 @@
         <v>25</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -3912,7 +3912,7 @@
         <v>25</v>
       </c>
       <c r="B250" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C250" t="s">
         <v>6</v>
@@ -3926,7 +3926,7 @@
         <v>25</v>
       </c>
       <c r="B251" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -3940,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="B252" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -3954,7 +3954,7 @@
         <v>25</v>
       </c>
       <c r="B253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
@@ -3968,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C254" t="s">
         <v>10</v>
@@ -3982,7 +3982,7 @@
         <v>25</v>
       </c>
       <c r="B255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C255" t="s">
         <v>11</v>
@@ -3996,7 +3996,7 @@
         <v>25</v>
       </c>
       <c r="B256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
@@ -4010,7 +4010,7 @@
         <v>25</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
@@ -4024,7 +4024,7 @@
         <v>25</v>
       </c>
       <c r="B258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C258" t="s">
         <v>6</v>
@@ -4038,7 +4038,7 @@
         <v>25</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -4052,7 +4052,7 @@
         <v>25</v>
       </c>
       <c r="B260" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C260" t="s">
         <v>8</v>
@@ -4066,7 +4066,7 @@
         <v>25</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
         <v>9</v>
@@ -4080,7 +4080,7 @@
         <v>25</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C262" t="s">
         <v>10</v>
@@ -4094,7 +4094,7 @@
         <v>25</v>
       </c>
       <c r="B263" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
         <v>11</v>
@@ -4108,7 +4108,7 @@
         <v>25</v>
       </c>
       <c r="B264" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s">
         <v>12</v>
@@ -4122,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -4136,7 +4136,7 @@
         <v>25</v>
       </c>
       <c r="B266" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -4150,7 +4150,7 @@
         <v>25</v>
       </c>
       <c r="B267" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -4164,7 +4164,7 @@
         <v>25</v>
       </c>
       <c r="B268" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
@@ -4178,7 +4178,7 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
@@ -4192,7 +4192,7 @@
         <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C270" t="s">
         <v>10</v>
@@ -4206,7 +4206,7 @@
         <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
@@ -4220,7 +4220,7 @@
         <v>25</v>
       </c>
       <c r="B272" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C272" t="s">
         <v>12</v>
@@ -4234,7 +4234,7 @@
         <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C273" t="s">
         <v>13</v>
@@ -4248,7 +4248,7 @@
         <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C274" t="s">
         <v>6</v>
@@ -4262,7 +4262,7 @@
         <v>25</v>
       </c>
       <c r="B275" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -4276,7 +4276,7 @@
         <v>25</v>
       </c>
       <c r="B276" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -4290,7 +4290,7 @@
         <v>25</v>
       </c>
       <c r="B277" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -4304,7 +4304,7 @@
         <v>25</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C278" t="s">
         <v>10</v>
@@ -4318,7 +4318,7 @@
         <v>25</v>
       </c>
       <c r="B279" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C279" t="s">
         <v>11</v>
@@ -4332,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="B280" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
         <v>12</v>
@@ -4346,7 +4346,7 @@
         <v>25</v>
       </c>
       <c r="B281" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C281" t="s">
         <v>13</v>
@@ -4360,7 +4360,7 @@
         <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
@@ -4374,7 +4374,7 @@
         <v>25</v>
       </c>
       <c r="B283" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C283" t="s">
         <v>7</v>
@@ -4388,7 +4388,7 @@
         <v>25</v>
       </c>
       <c r="B284" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
         <v>8</v>
@@ -4402,7 +4402,7 @@
         <v>25</v>
       </c>
       <c r="B285" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -4416,7 +4416,7 @@
         <v>25</v>
       </c>
       <c r="B286" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C286" t="s">
         <v>10</v>
@@ -4430,7 +4430,7 @@
         <v>25</v>
       </c>
       <c r="B287" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
@@ -4444,7 +4444,7 @@
         <v>25</v>
       </c>
       <c r="B288" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C288" t="s">
         <v>12</v>
@@ -4458,7 +4458,7 @@
         <v>25</v>
       </c>
       <c r="B289" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
         <v>8</v>
@@ -4511,10 +4511,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
@@ -4525,10 +4525,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C294" t="s">
         <v>10</v>
@@ -4539,10 +4539,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C295" t="s">
         <v>11</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C296" t="s">
         <v>12</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
@@ -4595,10 +4595,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
         <v>7</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
         <v>8</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C302" t="s">
         <v>10</v>
@@ -4651,10 +4651,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C303" t="s">
         <v>11</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C304" t="s">
         <v>12</v>
@@ -4679,10 +4679,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
         <v>13</v>
@@ -4693,10 +4693,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C307" t="s">
         <v>7</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C308" t="s">
         <v>8</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C309" t="s">
         <v>9</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C310" t="s">
         <v>10</v>
@@ -4763,10 +4763,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C311" t="s">
         <v>11</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
         <v>12</v>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C313" t="s">
         <v>13</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C314" t="s">
         <v>6</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C315" t="s">
         <v>7</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C316" t="s">
         <v>8</v>
@@ -4847,10 +4847,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C318" t="s">
         <v>10</v>
@@ -4875,10 +4875,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C319" t="s">
         <v>11</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C320" t="s">
         <v>12</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C321" t="s">
         <v>13</v>
@@ -4917,10 +4917,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B322" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B323" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C323" t="s">
         <v>7</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C324" t="s">
         <v>8</v>
@@ -4959,10 +4959,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B325" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C325" t="s">
         <v>9</v>
@@ -4973,10 +4973,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C326" t="s">
         <v>10</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B327" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C327" t="s">
         <v>11</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C328" t="s">
         <v>12</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C329" t="s">
         <v>13</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C330" t="s">
         <v>6</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B331" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C331" t="s">
         <v>7</v>
@@ -5057,10 +5057,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B332" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C332" t="s">
         <v>8</v>
@@ -5071,10 +5071,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C333" t="s">
         <v>9</v>
@@ -5085,10 +5085,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B334" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C334" t="s">
         <v>10</v>
@@ -5099,10 +5099,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B335" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C335" t="s">
         <v>11</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B336" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C336" t="s">
         <v>12</v>
@@ -5127,10 +5127,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B337" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C337" t="s">
         <v>13</v>
@@ -5141,10 +5141,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B338" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
         <v>6</v>
@@ -5155,10 +5155,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B339" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C339" t="s">
         <v>7</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B340" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C340" t="s">
         <v>8</v>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B341" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
         <v>9</v>
@@ -5197,10 +5197,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B342" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
         <v>10</v>
@@ -5211,10 +5211,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B343" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C343" t="s">
         <v>11</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B344" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
         <v>12</v>
@@ -5239,10 +5239,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B345" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C345" t="s">
         <v>13</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B346" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C346" t="s">
         <v>6</v>
@@ -5267,10 +5267,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B347" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B348" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B349" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C349" t="s">
         <v>9</v>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B350" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C350" t="s">
         <v>10</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B351" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C351" t="s">
         <v>11</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B352" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C352" t="s">
         <v>12</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C353" t="s">
         <v>13</v>
@@ -5365,10 +5365,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B354" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C354" t="s">
         <v>6</v>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B355" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C355" t="s">
         <v>7</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B356" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -5407,10 +5407,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C357" t="s">
         <v>9</v>
@@ -5421,10 +5421,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B358" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C358" t="s">
         <v>10</v>
@@ -5435,10 +5435,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B359" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C359" t="s">
         <v>11</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B360" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C360" t="s">
         <v>12</v>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B361" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C361" t="s">
         <v>13</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B363" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C363" t="s">
         <v>7</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B364" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C364" t="s">
         <v>8</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C365" t="s">
         <v>9</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B366" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C366" t="s">
         <v>10</v>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B367" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C367" t="s">
         <v>11</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B368" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C368" t="s">
         <v>12</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B369" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C369" t="s">
         <v>13</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -5603,10 +5603,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C371" t="s">
         <v>7</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B373" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
         <v>9</v>
@@ -5645,10 +5645,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
         <v>10</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C375" t="s">
         <v>11</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
         <v>12</v>
@@ -5687,10 +5687,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
         <v>13</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B378" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -5715,10 +5715,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B379" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C379" t="s">
         <v>7</v>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B380" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -5743,10 +5743,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
         <v>9</v>
@@ -5757,10 +5757,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
         <v>10</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C383" t="s">
         <v>11</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B384" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C384" t="s">
         <v>12</v>
@@ -5799,10 +5799,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B385" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -5813,10 +5813,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B386" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C386" t="s">
         <v>6</v>
@@ -5827,10 +5827,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B387" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C387" t="s">
         <v>7</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B388" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C388" t="s">
         <v>8</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B389" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B390" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C390" t="s">
         <v>10</v>
@@ -5883,10 +5883,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B391" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C391" t="s">
         <v>11</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B392" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C392" t="s">
         <v>12</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B393" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
@@ -5925,10 +5925,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B394" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B395" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C395" t="s">
         <v>7</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B396" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C396" t="s">
         <v>8</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B397" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C397" t="s">
         <v>9</v>
@@ -5981,10 +5981,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B398" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C398" t="s">
         <v>10</v>
@@ -5995,10 +5995,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B399" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C399" t="s">
         <v>11</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B400" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C400" t="s">
         <v>12</v>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B401" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C401" t="s">
         <v>13</v>
@@ -6037,10 +6037,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B402" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B403" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C403" t="s">
         <v>7</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B404" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C404" t="s">
         <v>8</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B405" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C405" t="s">
         <v>9</v>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B406" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C406" t="s">
         <v>10</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B407" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C407" t="s">
         <v>11</v>
@@ -6121,10 +6121,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B408" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C408" t="s">
         <v>12</v>
@@ -6135,10 +6135,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B409" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C409" t="s">
         <v>13</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B410" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C410" t="s">
         <v>6</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B411" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C411" t="s">
         <v>7</v>
@@ -6177,10 +6177,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B412" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C412" t="s">
         <v>8</v>
@@ -6191,10 +6191,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B413" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C413" t="s">
         <v>9</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B414" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C414" t="s">
         <v>10</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B415" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C415" t="s">
         <v>11</v>
@@ -6233,10 +6233,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B416" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C416" t="s">
         <v>12</v>
@@ -6247,10 +6247,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B417" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C417" t="s">
         <v>13</v>
@@ -6261,10 +6261,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B418" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C418" t="s">
         <v>6</v>
@@ -6275,10 +6275,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B419" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C419" t="s">
         <v>7</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B420" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C420" t="s">
         <v>8</v>
@@ -6303,10 +6303,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B421" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C421" t="s">
         <v>9</v>
@@ -6317,10 +6317,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B422" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C422" t="s">
         <v>10</v>
@@ -6331,10 +6331,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B423" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C423" t="s">
         <v>11</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B424" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C424" t="s">
         <v>12</v>
@@ -6359,10 +6359,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B425" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C425" t="s">
         <v>13</v>
@@ -6373,10 +6373,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B426" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C426" t="s">
         <v>6</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B427" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C427" t="s">
         <v>7</v>
@@ -6401,10 +6401,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B428" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C428" t="s">
         <v>8</v>
@@ -6415,10 +6415,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B429" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C429" t="s">
         <v>9</v>
@@ -6429,10 +6429,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B430" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C430" t="s">
         <v>10</v>
@@ -6443,10 +6443,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B431" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C431" t="s">
         <v>11</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B432" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C432" t="s">
         <v>12</v>
@@ -6471,10 +6471,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B433" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C433" t="s">
         <v>13</v>
@@ -6485,10 +6485,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B434" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
@@ -6499,10 +6499,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B435" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C435" t="s">
         <v>7</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B436" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C436" t="s">
         <v>8</v>
@@ -6527,10 +6527,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B437" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C437" t="s">
         <v>9</v>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B438" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C438" t="s">
         <v>10</v>
@@ -6555,10 +6555,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B439" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C439" t="s">
         <v>11</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B440" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C440" t="s">
         <v>12</v>
@@ -6583,10 +6583,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B441" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C441" t="s">
         <v>13</v>
@@ -6597,10 +6597,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B442" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -6611,10 +6611,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B443" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C443" t="s">
         <v>7</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B444" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C444" t="s">
         <v>8</v>
@@ -6639,10 +6639,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B445" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C445" t="s">
         <v>9</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B446" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C446" t="s">
         <v>10</v>
@@ -6667,10 +6667,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B447" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C447" t="s">
         <v>11</v>
@@ -6681,10 +6681,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B448" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C448" t="s">
         <v>12</v>
@@ -6695,10 +6695,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B449" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C449" t="s">
         <v>13</v>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B450" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C450" t="s">
         <v>6</v>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B451" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C451" t="s">
         <v>7</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B452" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C452" t="s">
         <v>8</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B453" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C453" t="s">
         <v>9</v>
@@ -6765,10 +6765,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B454" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C454" t="s">
         <v>10</v>
@@ -6779,10 +6779,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B455" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C455" t="s">
         <v>11</v>
@@ -6793,10 +6793,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B456" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C456" t="s">
         <v>12</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B457" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C457" t="s">
         <v>13</v>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B458" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
@@ -6835,10 +6835,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B459" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C459" t="s">
         <v>7</v>
@@ -6849,10 +6849,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B460" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C460" t="s">
         <v>8</v>
@@ -6863,10 +6863,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B461" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C461" t="s">
         <v>9</v>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B462" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C462" t="s">
         <v>10</v>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B463" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C463" t="s">
         <v>11</v>
@@ -6905,10 +6905,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B464" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C464" t="s">
         <v>12</v>
@@ -6919,10 +6919,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B465" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C465" t="s">
         <v>13</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B466" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C466" t="s">
         <v>6</v>
@@ -6947,10 +6947,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B467" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C467" t="s">
         <v>7</v>
@@ -6961,10 +6961,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B468" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C468" t="s">
         <v>8</v>
@@ -6975,10 +6975,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B469" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C469" t="s">
         <v>9</v>
@@ -6989,10 +6989,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B470" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C470" t="s">
         <v>10</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B471" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C471" t="s">
         <v>11</v>
@@ -7017,10 +7017,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B472" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C472" t="s">
         <v>12</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B473" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C473" t="s">
         <v>13</v>
@@ -7045,10 +7045,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B474" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C474" t="s">
         <v>6</v>
@@ -7059,10 +7059,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B475" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C475" t="s">
         <v>7</v>
@@ -7073,10 +7073,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B476" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C476" t="s">
         <v>8</v>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B477" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C477" t="s">
         <v>9</v>
@@ -7101,10 +7101,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B478" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C478" t="s">
         <v>10</v>
@@ -7115,10 +7115,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B479" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C479" t="s">
         <v>11</v>
@@ -7129,10 +7129,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B480" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C480" t="s">
         <v>12</v>
@@ -7143,10 +7143,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B481" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C481" t="s">
         <v>13</v>
@@ -7157,10 +7157,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B482" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C482" t="s">
         <v>6</v>
@@ -7171,10 +7171,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B483" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C483" t="s">
         <v>7</v>
@@ -7185,10 +7185,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B484" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C484" t="s">
         <v>8</v>
@@ -7199,10 +7199,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B485" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C485" t="s">
         <v>9</v>
@@ -7213,10 +7213,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B486" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C486" t="s">
         <v>10</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B487" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C487" t="s">
         <v>11</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B488" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C488" t="s">
         <v>12</v>
@@ -7255,10 +7255,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B489" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C489" t="s">
         <v>13</v>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B490" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C490" t="s">
         <v>6</v>
@@ -7283,10 +7283,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B491" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C491" t="s">
         <v>7</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B492" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C492" t="s">
         <v>8</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B493" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C493" t="s">
         <v>9</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B494" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C494" t="s">
         <v>10</v>
@@ -7339,10 +7339,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B495" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C495" t="s">
         <v>11</v>
@@ -7353,10 +7353,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B496" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C496" t="s">
         <v>12</v>
@@ -7367,10 +7367,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B497" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C497" t="s">
         <v>13</v>
@@ -7381,10 +7381,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B498" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C498" t="s">
         <v>6</v>
@@ -7395,10 +7395,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B499" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C499" t="s">
         <v>7</v>
@@ -7409,10 +7409,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B500" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C500" t="s">
         <v>8</v>
@@ -7423,10 +7423,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B501" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C501" t="s">
         <v>9</v>
@@ -7437,10 +7437,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B502" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C502" t="s">
         <v>10</v>
@@ -7451,10 +7451,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B503" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C503" t="s">
         <v>11</v>
@@ -7465,10 +7465,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B504" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C504" t="s">
         <v>12</v>
@@ -7479,10 +7479,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B505" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C505" t="s">
         <v>13</v>
@@ -7493,10 +7493,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B506" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C506" t="s">
         <v>6</v>
@@ -7507,10 +7507,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B507" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C507" t="s">
         <v>7</v>
@@ -7521,10 +7521,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B508" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C508" t="s">
         <v>8</v>
@@ -7535,10 +7535,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B509" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C509" t="s">
         <v>9</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B510" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C510" t="s">
         <v>10</v>
@@ -7563,10 +7563,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B511" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C511" t="s">
         <v>11</v>
@@ -7577,10 +7577,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B512" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C512" t="s">
         <v>12</v>
@@ -7591,10 +7591,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B513" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C513" t="s">
         <v>13</v>
@@ -7605,10 +7605,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B514" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C514" t="s">
         <v>6</v>
@@ -7619,10 +7619,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B515" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C515" t="s">
         <v>7</v>
@@ -7633,10 +7633,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B516" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C516" t="s">
         <v>8</v>
@@ -7647,10 +7647,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B517" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C517" t="s">
         <v>9</v>
@@ -7661,10 +7661,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B518" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C518" t="s">
         <v>10</v>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B519" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C519" t="s">
         <v>11</v>
@@ -7689,10 +7689,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B520" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C520" t="s">
         <v>12</v>
@@ -7703,10 +7703,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B521" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C521" t="s">
         <v>13</v>
@@ -7717,10 +7717,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B522" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C522" t="s">
         <v>6</v>
@@ -7731,10 +7731,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B523" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C523" t="s">
         <v>7</v>
@@ -7745,10 +7745,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B524" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
@@ -7759,10 +7759,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B525" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C525" t="s">
         <v>9</v>
@@ -7773,10 +7773,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B526" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C526" t="s">
         <v>10</v>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B527" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C527" t="s">
         <v>11</v>
@@ -7801,10 +7801,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B528" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C528" t="s">
         <v>12</v>
@@ -7815,10 +7815,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B529" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C529" t="s">
         <v>13</v>
@@ -7829,10 +7829,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B530" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C530" t="s">
         <v>6</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B531" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C531" t="s">
         <v>7</v>
@@ -7857,10 +7857,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B532" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C532" t="s">
         <v>8</v>
@@ -7871,10 +7871,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B533" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C533" t="s">
         <v>9</v>
@@ -7885,10 +7885,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B534" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C534" t="s">
         <v>10</v>
@@ -7899,10 +7899,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B535" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C535" t="s">
         <v>11</v>
@@ -7913,10 +7913,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B536" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C536" t="s">
         <v>12</v>
@@ -7927,10 +7927,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B537" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C537" t="s">
         <v>13</v>
@@ -7941,10 +7941,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B538" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C538" t="s">
         <v>6</v>
@@ -7955,10 +7955,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B539" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C539" t="s">
         <v>7</v>
@@ -7969,10 +7969,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B540" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C540" t="s">
         <v>8</v>
@@ -7983,10 +7983,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B541" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C541" t="s">
         <v>9</v>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B542" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C542" t="s">
         <v>10</v>
@@ -8011,10 +8011,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B543" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C543" t="s">
         <v>11</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B544" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C544" t="s">
         <v>12</v>
@@ -8039,10 +8039,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B545" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C545" t="s">
         <v>13</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B546" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C546" t="s">
         <v>6</v>
@@ -8067,10 +8067,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B547" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C547" t="s">
         <v>7</v>
@@ -8081,10 +8081,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B548" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C548" t="s">
         <v>8</v>
@@ -8095,10 +8095,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B549" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C549" t="s">
         <v>9</v>
@@ -8109,10 +8109,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B550" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C550" t="s">
         <v>10</v>
@@ -8123,10 +8123,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B551" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C551" t="s">
         <v>11</v>
@@ -8137,10 +8137,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B552" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C552" t="s">
         <v>12</v>
@@ -8151,10 +8151,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B553" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C553" t="s">
         <v>13</v>
@@ -8165,10 +8165,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B554" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C554" t="s">
         <v>6</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B555" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C555" t="s">
         <v>7</v>
@@ -8193,10 +8193,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B556" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C556" t="s">
         <v>8</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B557" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C557" t="s">
         <v>9</v>
@@ -8221,10 +8221,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B558" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C558" t="s">
         <v>10</v>
@@ -8235,10 +8235,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B559" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C559" t="s">
         <v>11</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B560" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C560" t="s">
         <v>12</v>
@@ -8263,10 +8263,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B561" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C561" t="s">
         <v>13</v>
@@ -8277,10 +8277,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B562" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C562" t="s">
         <v>6</v>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B563" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C563" t="s">
         <v>7</v>
@@ -8305,10 +8305,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B564" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C564" t="s">
         <v>8</v>
@@ -8319,10 +8319,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B565" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C565" t="s">
         <v>9</v>
@@ -8333,10 +8333,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B566" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C566" t="s">
         <v>10</v>
@@ -8347,10 +8347,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B567" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C567" t="s">
         <v>11</v>
@@ -8361,10 +8361,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B568" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C568" t="s">
         <v>12</v>
@@ -8375,10 +8375,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B569" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C569" t="s">
         <v>13</v>
@@ -8389,10 +8389,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B570" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C570" t="s">
         <v>6</v>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B571" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C571" t="s">
         <v>7</v>
@@ -8417,10 +8417,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B572" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C572" t="s">
         <v>8</v>
@@ -8431,10 +8431,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B573" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C573" t="s">
         <v>9</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B574" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C574" t="s">
         <v>10</v>
@@ -8459,10 +8459,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B575" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C575" t="s">
         <v>11</v>
@@ -8473,10 +8473,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B576" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C576" t="s">
         <v>12</v>
@@ -8487,10 +8487,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B577" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C577" t="s">
         <v>13</v>
@@ -8501,10 +8501,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B578" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C578" t="s">
         <v>6</v>
@@ -8515,10 +8515,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B579" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C579" t="s">
         <v>7</v>
@@ -8529,10 +8529,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B580" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C580" t="s">
         <v>8</v>
@@ -8543,10 +8543,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B581" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C581" t="s">
         <v>9</v>
@@ -8557,10 +8557,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B582" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C582" t="s">
         <v>10</v>
@@ -8571,10 +8571,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B583" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C583" t="s">
         <v>11</v>
@@ -8585,10 +8585,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B584" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C584" t="s">
         <v>12</v>
@@ -8599,10 +8599,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B585" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C585" t="s">
         <v>13</v>
@@ -8613,10 +8613,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B586" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C586" t="s">
         <v>6</v>
@@ -8627,10 +8627,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B587" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C587" t="s">
         <v>7</v>
@@ -8641,10 +8641,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B588" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C588" t="s">
         <v>8</v>
@@ -8655,10 +8655,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B589" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C589" t="s">
         <v>9</v>
@@ -8669,10 +8669,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B590" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C590" t="s">
         <v>10</v>
@@ -8683,10 +8683,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B591" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C591" t="s">
         <v>11</v>
@@ -8697,10 +8697,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B592" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C592" t="s">
         <v>12</v>
@@ -8711,10 +8711,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B593" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C593" t="s">
         <v>13</v>
@@ -8725,10 +8725,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B594" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C594" t="s">
         <v>6</v>
@@ -8739,10 +8739,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B595" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C595" t="s">
         <v>7</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B596" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C596" t="s">
         <v>8</v>
@@ -8767,10 +8767,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B597" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C597" t="s">
         <v>9</v>
@@ -8781,10 +8781,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B598" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C598" t="s">
         <v>10</v>
@@ -8795,10 +8795,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B599" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C599" t="s">
         <v>11</v>
@@ -8809,10 +8809,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B600" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C600" t="s">
         <v>12</v>
@@ -8823,10 +8823,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B601" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C601" t="s">
         <v>13</v>
@@ -8837,10 +8837,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B602" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C602" t="s">
         <v>6</v>
@@ -8851,10 +8851,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B603" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C603" t="s">
         <v>7</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B604" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C604" t="s">
         <v>8</v>
@@ -8879,10 +8879,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B605" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C605" t="s">
         <v>9</v>
@@ -8893,10 +8893,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B606" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C606" t="s">
         <v>10</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B607" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C607" t="s">
         <v>11</v>
@@ -8921,10 +8921,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B608" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C608" t="s">
         <v>12</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B609" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C609" t="s">
         <v>13</v>
@@ -8949,10 +8949,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B610" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C610" t="s">
         <v>6</v>
@@ -8963,10 +8963,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B611" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C611" t="s">
         <v>7</v>
@@ -8977,10 +8977,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B612" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C612" t="s">
         <v>8</v>
@@ -8991,10 +8991,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B613" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C613" t="s">
         <v>9</v>
@@ -9005,10 +9005,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B614" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C614" t="s">
         <v>10</v>
@@ -9019,10 +9019,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B615" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C615" t="s">
         <v>11</v>
@@ -9033,10 +9033,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B616" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C616" t="s">
         <v>12</v>
@@ -9047,10 +9047,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B617" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C617" t="s">
         <v>13</v>
@@ -9061,10 +9061,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B618" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C618" t="s">
         <v>6</v>
@@ -9075,10 +9075,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B619" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C619" t="s">
         <v>7</v>
@@ -9089,10 +9089,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B620" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C620" t="s">
         <v>8</v>
@@ -9103,10 +9103,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B621" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C621" t="s">
         <v>9</v>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B622" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C622" t="s">
         <v>10</v>
@@ -9131,10 +9131,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B623" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C623" t="s">
         <v>11</v>
@@ -9145,10 +9145,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B624" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C624" t="s">
         <v>12</v>
@@ -9159,10 +9159,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B625" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C625" t="s">
         <v>13</v>
@@ -9173,10 +9173,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B626" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C626" t="s">
         <v>6</v>
@@ -9187,10 +9187,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B627" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C627" t="s">
         <v>7</v>
@@ -9201,10 +9201,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B628" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C628" t="s">
         <v>8</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B629" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C629" t="s">
         <v>9</v>
@@ -9229,10 +9229,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B630" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C630" t="s">
         <v>10</v>
@@ -9243,10 +9243,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B631" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C631" t="s">
         <v>11</v>
@@ -9257,10 +9257,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B632" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C632" t="s">
         <v>12</v>
@@ -9271,10 +9271,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B633" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C633" t="s">
         <v>13</v>
@@ -9285,10 +9285,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B634" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C634" t="s">
         <v>6</v>
@@ -9299,10 +9299,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B635" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C635" t="s">
         <v>7</v>
@@ -9313,10 +9313,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B636" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C636" t="s">
         <v>8</v>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B637" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C637" t="s">
         <v>9</v>
@@ -9341,10 +9341,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B638" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C638" t="s">
         <v>10</v>
@@ -9355,10 +9355,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B639" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C639" t="s">
         <v>11</v>
@@ -9369,10 +9369,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B640" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C640" t="s">
         <v>12</v>
@@ -9383,10 +9383,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B641" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C641" t="s">
         <v>13</v>
@@ -9397,10 +9397,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B642" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C642" t="s">
         <v>6</v>
@@ -9411,10 +9411,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B643" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C643" t="s">
         <v>7</v>
@@ -9425,10 +9425,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B644" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C644" t="s">
         <v>8</v>
@@ -9439,10 +9439,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B645" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C645" t="s">
         <v>9</v>
@@ -9453,10 +9453,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B646" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C646" t="s">
         <v>10</v>
@@ -9467,10 +9467,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B647" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C647" t="s">
         <v>11</v>
@@ -9481,10 +9481,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B648" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C648" t="s">
         <v>12</v>
@@ -9495,10 +9495,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B649" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C649" t="s">
         <v>13</v>
@@ -9509,10 +9509,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B650" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C650" t="s">
         <v>6</v>
@@ -9523,10 +9523,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B651" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C651" t="s">
         <v>7</v>
@@ -9537,10 +9537,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B652" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C652" t="s">
         <v>8</v>
@@ -9551,10 +9551,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B653" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C653" t="s">
         <v>9</v>
@@ -9565,10 +9565,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B654" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C654" t="s">
         <v>10</v>
@@ -9579,10 +9579,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B655" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C655" t="s">
         <v>11</v>
@@ -9593,10 +9593,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B656" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C656" t="s">
         <v>12</v>
@@ -9607,10 +9607,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B657" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C657" t="s">
         <v>13</v>
@@ -9621,10 +9621,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B658" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C658" t="s">
         <v>6</v>
@@ -9635,10 +9635,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B659" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C659" t="s">
         <v>7</v>
@@ -9649,10 +9649,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B660" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C660" t="s">
         <v>8</v>
@@ -9663,10 +9663,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B661" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C661" t="s">
         <v>9</v>
@@ -9677,10 +9677,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B662" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C662" t="s">
         <v>10</v>
@@ -9691,10 +9691,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B663" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C663" t="s">
         <v>11</v>
@@ -9705,10 +9705,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B664" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C664" t="s">
         <v>12</v>
@@ -9719,10 +9719,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B665" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C665" t="s">
         <v>13</v>
@@ -9733,10 +9733,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B666" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C666" t="s">
         <v>6</v>
@@ -9747,10 +9747,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B667" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C667" t="s">
         <v>7</v>
@@ -9761,10 +9761,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B668" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C668" t="s">
         <v>8</v>
@@ -9775,10 +9775,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B669" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C669" t="s">
         <v>9</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B670" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C670" t="s">
         <v>10</v>
@@ -9803,10 +9803,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B671" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C671" t="s">
         <v>11</v>
@@ -9817,10 +9817,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B672" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C672" t="s">
         <v>12</v>
@@ -9831,10 +9831,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B673" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C673" t="s">
         <v>13</v>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B674" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C674" t="s">
         <v>6</v>
@@ -9859,10 +9859,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B675" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C675" t="s">
         <v>7</v>
@@ -9873,10 +9873,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B676" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C676" t="s">
         <v>8</v>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B677" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C677" t="s">
         <v>9</v>
@@ -9901,10 +9901,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B678" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C678" t="s">
         <v>10</v>
@@ -9915,10 +9915,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B679" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C679" t="s">
         <v>11</v>
@@ -9929,10 +9929,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B680" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C680" t="s">
         <v>12</v>
@@ -9943,10 +9943,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B681" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C681" t="s">
         <v>13</v>
@@ -9957,10 +9957,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B682" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C682" t="s">
         <v>6</v>
@@ -9971,10 +9971,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B683" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C683" t="s">
         <v>7</v>
@@ -9985,10 +9985,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B684" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C684" t="s">
         <v>8</v>
@@ -9999,10 +9999,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B685" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C685" t="s">
         <v>9</v>
@@ -10013,10 +10013,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B686" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C686" t="s">
         <v>10</v>
@@ -10027,10 +10027,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B687" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C687" t="s">
         <v>11</v>
@@ -10041,10 +10041,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B688" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C688" t="s">
         <v>12</v>
@@ -10055,10 +10055,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B689" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C689" t="s">
         <v>13</v>
@@ -10069,10 +10069,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B690" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C690" t="s">
         <v>6</v>
@@ -10083,10 +10083,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B691" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C691" t="s">
         <v>7</v>
@@ -10097,10 +10097,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B692" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C692" t="s">
         <v>8</v>
@@ -10111,10 +10111,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B693" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C693" t="s">
         <v>9</v>
@@ -10125,10 +10125,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B694" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C694" t="s">
         <v>10</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B695" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C695" t="s">
         <v>11</v>
@@ -10153,10 +10153,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B696" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C696" t="s">
         <v>12</v>
@@ -10167,10 +10167,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B697" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C697" t="s">
         <v>13</v>
@@ -10181,10 +10181,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B698" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C698" t="s">
         <v>6</v>
@@ -10195,10 +10195,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B699" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C699" t="s">
         <v>7</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B700" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C700" t="s">
         <v>8</v>
@@ -10223,10 +10223,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B701" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C701" t="s">
         <v>9</v>
@@ -10237,10 +10237,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B702" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C702" t="s">
         <v>10</v>
@@ -10251,10 +10251,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B703" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C703" t="s">
         <v>11</v>
@@ -10265,10 +10265,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B704" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C704" t="s">
         <v>12</v>
@@ -10279,10 +10279,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B705" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C705" t="s">
         <v>13</v>
@@ -10293,10 +10293,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B706" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C706" t="s">
         <v>6</v>
@@ -10307,10 +10307,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B707" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C707" t="s">
         <v>7</v>
@@ -10321,10 +10321,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B708" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C708" t="s">
         <v>8</v>
@@ -10335,10 +10335,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B709" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C709" t="s">
         <v>9</v>
@@ -10349,10 +10349,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B710" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C710" t="s">
         <v>10</v>
@@ -10363,10 +10363,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B711" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C711" t="s">
         <v>11</v>
@@ -10377,10 +10377,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B712" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C712" t="s">
         <v>12</v>
@@ -10391,10 +10391,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B713" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C713" t="s">
         <v>13</v>
@@ -10405,10 +10405,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B714" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C714" t="s">
         <v>6</v>
@@ -10419,10 +10419,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B715" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C715" t="s">
         <v>7</v>
@@ -10433,10 +10433,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B716" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C716" t="s">
         <v>8</v>
@@ -10447,10 +10447,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B717" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C717" t="s">
         <v>9</v>
@@ -10461,10 +10461,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B718" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C718" t="s">
         <v>10</v>
@@ -10475,10 +10475,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B719" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C719" t="s">
         <v>11</v>
@@ -10489,10 +10489,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B720" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C720" t="s">
         <v>12</v>
@@ -10503,10 +10503,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B721" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C721" t="s">
         <v>13</v>
@@ -10517,10 +10517,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B722" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C722" t="s">
         <v>6</v>
@@ -10531,10 +10531,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B723" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C723" t="s">
         <v>7</v>
@@ -10545,10 +10545,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B724" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C724" t="s">
         <v>8</v>
@@ -10559,10 +10559,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B725" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C725" t="s">
         <v>9</v>
@@ -10573,10 +10573,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B726" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C726" t="s">
         <v>10</v>
@@ -10587,10 +10587,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B727" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C727" t="s">
         <v>11</v>
@@ -10601,10 +10601,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B728" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C728" t="s">
         <v>12</v>
@@ -10615,10 +10615,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B729" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C729" t="s">
         <v>13</v>
